--- a/Sensor height vs Distance to perceive Obj data.xlsx
+++ b/Sensor height vs Distance to perceive Obj data.xlsx
@@ -1211,6 +1211,12 @@
       <c r="B71">
         <v>0.44999999999999996</v>
       </c>
+      <c r="C71">
+        <v>1.3139835956222188</v>
+      </c>
+      <c r="D71">
+        <v>0.64999999999999991</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
@@ -1219,6 +1225,12 @@
       <c r="B72">
         <v>0.45499999999999996</v>
       </c>
+      <c r="C72">
+        <v>1.332643849660063</v>
+      </c>
+      <c r="D72">
+        <v>0.65499999999999992</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
@@ -1227,6 +1239,12 @@
       <c r="B73">
         <v>0.45999999999999996</v>
       </c>
+      <c r="C73">
+        <v>1.3513041036979077</v>
+      </c>
+      <c r="D73">
+        <v>0.65999999999999992</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
@@ -1235,6 +1253,12 @@
       <c r="B74">
         <v>0.46499999999999997</v>
       </c>
+      <c r="C74">
+        <v>1.3699643577357519</v>
+      </c>
+      <c r="D74">
+        <v>0.66499999999999992</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
@@ -1243,6 +1267,12 @@
       <c r="B75">
         <v>0.47</v>
       </c>
+      <c r="C75">
+        <v>1.3886246117735961</v>
+      </c>
+      <c r="D75">
+        <v>0.66999999999999993</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
@@ -1251,6 +1281,12 @@
       <c r="B76">
         <v>0.47499999999999998</v>
       </c>
+      <c r="C76">
+        <v>1.4072848658114407</v>
+      </c>
+      <c r="D76">
+        <v>0.67499999999999993</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
@@ -1259,6 +1295,12 @@
       <c r="B77">
         <v>0.48</v>
       </c>
+      <c r="C77">
+        <v>1.4259451198492845</v>
+      </c>
+      <c r="D77">
+        <v>0.67999999999999983</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
@@ -1267,6 +1309,12 @@
       <c r="B78">
         <v>0.48499999999999999</v>
       </c>
+      <c r="C78">
+        <v>1.4446053738871296</v>
+      </c>
+      <c r="D78">
+        <v>0.68499999999999994</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
@@ -1275,6 +1323,12 @@
       <c r="B79">
         <v>0.49</v>
       </c>
+      <c r="C79">
+        <v>1.4632656279249738</v>
+      </c>
+      <c r="D79">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -1283,456 +1337,798 @@
       <c r="B80">
         <v>0.495</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>1.481925881962818</v>
+      </c>
+      <c r="D80">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.75417597448688745</v>
       </c>
       <c r="B81">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>1.5005861360006627</v>
+      </c>
+      <c r="D81">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.77283622852473166</v>
       </c>
       <c r="B82">
         <v>0.505</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>1.5192463900385065</v>
+      </c>
+      <c r="D82">
+        <v>0.70499999999999985</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0.7914964825625761</v>
       </c>
       <c r="B83">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>1.5379066440763511</v>
+      </c>
+      <c r="D83">
+        <v>0.70999999999999985</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.81015673660042009</v>
       </c>
       <c r="B84">
         <v>0.5149999999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>1.5565668981141958</v>
+      </c>
+      <c r="D84">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.82881699063826497</v>
       </c>
       <c r="B85">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>1.5752271521520405</v>
+      </c>
+      <c r="D85">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0.84747724467610897</v>
       </c>
       <c r="B86">
         <v>0.52499999999999991</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>1.5938874061898847</v>
+      </c>
+      <c r="D86">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.8661374987139534</v>
       </c>
       <c r="B87">
         <v>0.52999999999999992</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>1.6125476602277289</v>
+      </c>
+      <c r="D87">
+        <v>0.72999999999999987</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.88479775275179828</v>
       </c>
       <c r="B88">
         <v>0.53500000000000003</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>1.6312079142655731</v>
+      </c>
+      <c r="D88">
+        <v>0.73499999999999988</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.90345800678964205</v>
       </c>
       <c r="B89">
         <v>0.53999999999999992</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>1.6498681683034173</v>
+      </c>
+      <c r="D89">
+        <v>0.73999999999999988</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.92211826082748671</v>
       </c>
       <c r="B90">
         <v>0.54499999999999993</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>1.6685284223412624</v>
+      </c>
+      <c r="D90">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0.94077851486533093</v>
       </c>
       <c r="B91">
         <v>0.54999999999999993</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>1.6871886763791066</v>
+      </c>
+      <c r="D91">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0.95943876890317559</v>
       </c>
       <c r="B92">
         <v>0.55499999999999994</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>1.7058489304169508</v>
+      </c>
+      <c r="D92">
+        <v>0.75499999999999989</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0.9780990229410198</v>
       </c>
       <c r="B93">
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>1.7245091844547951</v>
+      </c>
+      <c r="D93">
+        <v>0.7599999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0.99675927697886402</v>
       </c>
       <c r="B94">
         <v>0.56499999999999995</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>1.7431694384926397</v>
+      </c>
+      <c r="D94">
+        <v>0.7649999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1.0154195310167087</v>
       </c>
       <c r="B95">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>1.7618296925304839</v>
+      </c>
+      <c r="D95">
+        <v>0.76999999999999991</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1.0340797850545529</v>
       </c>
       <c r="B96">
         <v>0.57499999999999996</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>1.7804899465683286</v>
+      </c>
+      <c r="D96">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1.0527400390923976</v>
       </c>
       <c r="B97">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>1.7991502006061728</v>
+      </c>
+      <c r="D97">
+        <v>0.77999999999999992</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1.0714002931302418</v>
       </c>
       <c r="B98">
         <v>0.58499999999999996</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>1.817810454644017</v>
+      </c>
+      <c r="D98">
+        <v>0.78499999999999992</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1.090060547168086</v>
       </c>
       <c r="B99">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>1.8364707086818617</v>
+      </c>
+      <c r="D99">
+        <v>0.78999999999999992</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1.1087208012059306</v>
       </c>
       <c r="B100">
         <v>0.59499999999999997</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>1.8551309627197059</v>
+      </c>
+      <c r="D100">
+        <v>0.79499999999999993</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1.1273810552437749</v>
       </c>
       <c r="B101">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>1.8737912167575501</v>
+      </c>
+      <c r="D101">
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1.1460413092816195</v>
       </c>
       <c r="B102">
         <v>0.60499999999999998</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <v>1.8924514707953943</v>
+      </c>
+      <c r="D102">
+        <v>0.80499999999999983</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1.1647015633194637</v>
       </c>
       <c r="B103">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <v>1.911111724833239</v>
+      </c>
+      <c r="D103">
+        <v>0.80999999999999994</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1.1833618173573079</v>
       </c>
       <c r="B104">
         <v>0.61499999999999988</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104">
+        <v>1.9297719788710836</v>
+      </c>
+      <c r="D104">
+        <v>0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1.2020220713951526</v>
       </c>
       <c r="B105">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105">
+        <v>1.9484322329089279</v>
+      </c>
+      <c r="D105">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1.2206823254329968</v>
       </c>
       <c r="B106">
         <v>0.62499999999999989</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>1.9670924869467725</v>
+      </c>
+      <c r="D106">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1.239342579470841</v>
       </c>
       <c r="B107">
         <v>0.62999999999999989</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <v>1.9857527409846163</v>
+      </c>
+      <c r="D107">
+        <v>0.82999999999999985</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1.2580028335086857</v>
       </c>
       <c r="B108">
         <v>0.63500000000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108">
+        <v>2.0044129950224612</v>
+      </c>
+      <c r="D108">
+        <v>0.83499999999999985</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1.2766630875465299</v>
       </c>
       <c r="B109">
         <v>0.6399999999999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <v>2.0230732490603058</v>
+      </c>
+      <c r="D109">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1.2953233415843741</v>
       </c>
       <c r="B110">
         <v>0.64499999999999991</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110">
+        <v>2.0417335030981496</v>
+      </c>
+      <c r="D110">
+        <v>0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1.3139835956222188</v>
       </c>
       <c r="B111">
         <v>0.64999999999999991</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111">
+        <v>2.0603937571359943</v>
+      </c>
+      <c r="D111">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1.332643849660063</v>
       </c>
       <c r="B112">
         <v>0.65499999999999992</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112">
+        <v>2.079054011173838</v>
+      </c>
+      <c r="D112">
+        <v>0.85499999999999987</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1.3513041036979077</v>
       </c>
       <c r="B113">
         <v>0.65999999999999992</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113">
+        <v>2.0977142652116827</v>
+      </c>
+      <c r="D113">
+        <v>0.85999999999999988</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1.3699643577357519</v>
       </c>
       <c r="B114">
         <v>0.66499999999999992</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C114">
+        <v>2.1163745192495274</v>
+      </c>
+      <c r="D114">
+        <v>0.86499999999999988</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1.3886246117735961</v>
       </c>
       <c r="B115">
         <v>0.66999999999999993</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115">
+        <v>2.135034773287372</v>
+      </c>
+      <c r="D115">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1.4072848658114407</v>
       </c>
       <c r="B116">
         <v>0.67499999999999993</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116">
+        <v>2.1536950273252167</v>
+      </c>
+      <c r="D116">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1.4259451198492845</v>
       </c>
       <c r="B117">
         <v>0.67999999999999983</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C117">
+        <v>2.1723552813630604</v>
+      </c>
+      <c r="D117">
+        <v>0.87999999999999989</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1.4446053738871296</v>
       </c>
       <c r="B118">
         <v>0.68499999999999994</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118">
+        <v>2.1910155354009051</v>
+      </c>
+      <c r="D118">
+        <v>0.8849999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1.4632656279249738</v>
       </c>
       <c r="B119">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119">
+        <v>2.2096757894387489</v>
+      </c>
+      <c r="D119">
+        <v>0.8899999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1.481925881962818</v>
       </c>
       <c r="B120">
         <v>0.69499999999999995</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120">
+        <v>2.2283360434765935</v>
+      </c>
+      <c r="D120">
+        <v>0.89499999999999991</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1.5005861360006627</v>
       </c>
       <c r="B121">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121">
+        <v>2.2469962975144382</v>
+      </c>
+      <c r="D121">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1.5192463900385065</v>
       </c>
       <c r="B122">
         <v>0.70499999999999985</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122">
+        <v>2.265656551552282</v>
+      </c>
+      <c r="D122">
+        <v>0.90499999999999992</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1.5379066440763511</v>
       </c>
       <c r="B123">
         <v>0.70999999999999985</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123">
+        <v>2.2843168055901266</v>
+      </c>
+      <c r="D123">
+        <v>0.90999999999999992</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1.5565668981141958</v>
       </c>
       <c r="B124">
         <v>0.71499999999999997</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124">
+        <v>2.3029770596279713</v>
+      </c>
+      <c r="D124">
+        <v>0.91499999999999992</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1.5752271521520405</v>
       </c>
       <c r="B125">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C125">
+        <v>2.3216373136658159</v>
+      </c>
+      <c r="D125">
+        <v>0.91999999999999993</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1.5938874061898847</v>
       </c>
       <c r="B126">
         <v>0.72499999999999998</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126">
+        <v>2.3402975677036597</v>
+      </c>
+      <c r="D126">
+        <v>0.92499999999999982</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1.6125476602277289</v>
       </c>
       <c r="B127">
         <v>0.72999999999999987</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127">
+        <v>2.3589578217415044</v>
+      </c>
+      <c r="D127">
+        <v>0.92999999999999983</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1.6312079142655731</v>
       </c>
       <c r="B128">
         <v>0.73499999999999988</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128">
+        <v>2.377618075779349</v>
+      </c>
+      <c r="D128">
+        <v>0.93499999999999994</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1.6498681683034173</v>
       </c>
       <c r="B129">
         <v>0.73999999999999988</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129">
+        <v>2.3962783298171928</v>
+      </c>
+      <c r="D129">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1.6685284223412624</v>
       </c>
       <c r="B130">
         <v>0.745</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130">
+        <v>2.4149385838550375</v>
+      </c>
+      <c r="D130">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1.6871886763791066</v>
       </c>
       <c r="B131">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>2.4335988378928812</v>
+      </c>
+      <c r="D131">
+        <v>0.94999999999999984</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1.7058489304169508</v>
       </c>
       <c r="B132">
         <v>0.75499999999999989</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132">
+        <v>2.4522590919307259</v>
+      </c>
+      <c r="D132">
+        <v>0.95499999999999985</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1.7245091844547951</v>
       </c>
       <c r="B133">
         <v>0.7599999999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133">
+        <v>2.4709193459685705</v>
+      </c>
+      <c r="D133">
+        <v>0.95999999999999985</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1.7431694384926397</v>
       </c>
       <c r="B134">
         <v>0.7649999999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134">
+        <v>2.4895796000064152</v>
+      </c>
+      <c r="D134">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1.7618296925304839</v>
       </c>
       <c r="B135">
         <v>0.76999999999999991</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135">
+        <v>2.5082398540442599</v>
+      </c>
+      <c r="D135">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1.7804899465683286</v>
       </c>
       <c r="B136">
         <v>0.77500000000000002</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136">
+        <v>2.5269001080821036</v>
+      </c>
+      <c r="D136">
+        <v>0.97499999999999987</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1.7991502006061728</v>
       </c>
@@ -1740,7 +2136,7 @@
         <v>0.77999999999999992</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1.817810454644017</v>
       </c>
@@ -1748,7 +2144,7 @@
         <v>0.78499999999999992</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1.8364707086818617</v>
       </c>
@@ -1756,7 +2152,7 @@
         <v>0.78999999999999992</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1.8551309627197059</v>
       </c>
@@ -1764,7 +2160,7 @@
         <v>0.79499999999999993</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1.8737912167575501</v>
       </c>
@@ -1772,7 +2168,7 @@
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1.8924514707953943</v>
       </c>
@@ -1780,7 +2176,7 @@
         <v>0.80499999999999983</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1.911111724833239</v>
       </c>
@@ -1788,7 +2184,7 @@
         <v>0.80999999999999994</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1.9297719788710836</v>
       </c>

--- a/Sensor height vs Distance to perceive Obj data.xlsx
+++ b/Sensor height vs Distance to perceive Obj data.xlsx
@@ -1211,12 +1211,6 @@
       <c r="B71">
         <v>0.44999999999999996</v>
       </c>
-      <c r="C71">
-        <v>1.3139835956222188</v>
-      </c>
-      <c r="D71">
-        <v>0.64999999999999991</v>
-      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
@@ -1225,12 +1219,6 @@
       <c r="B72">
         <v>0.45499999999999996</v>
       </c>
-      <c r="C72">
-        <v>1.332643849660063</v>
-      </c>
-      <c r="D72">
-        <v>0.65499999999999992</v>
-      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
@@ -1239,12 +1227,6 @@
       <c r="B73">
         <v>0.45999999999999996</v>
       </c>
-      <c r="C73">
-        <v>1.3513041036979077</v>
-      </c>
-      <c r="D73">
-        <v>0.65999999999999992</v>
-      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
@@ -1253,12 +1235,6 @@
       <c r="B74">
         <v>0.46499999999999997</v>
       </c>
-      <c r="C74">
-        <v>1.3699643577357519</v>
-      </c>
-      <c r="D74">
-        <v>0.66499999999999992</v>
-      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
@@ -1267,12 +1243,6 @@
       <c r="B75">
         <v>0.47</v>
       </c>
-      <c r="C75">
-        <v>1.3886246117735961</v>
-      </c>
-      <c r="D75">
-        <v>0.66999999999999993</v>
-      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
@@ -1281,12 +1251,6 @@
       <c r="B76">
         <v>0.47499999999999998</v>
       </c>
-      <c r="C76">
-        <v>1.4072848658114407</v>
-      </c>
-      <c r="D76">
-        <v>0.67499999999999993</v>
-      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
@@ -1295,12 +1259,6 @@
       <c r="B77">
         <v>0.48</v>
       </c>
-      <c r="C77">
-        <v>1.4259451198492845</v>
-      </c>
-      <c r="D77">
-        <v>0.67999999999999983</v>
-      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
@@ -1309,12 +1267,6 @@
       <c r="B78">
         <v>0.48499999999999999</v>
       </c>
-      <c r="C78">
-        <v>1.4446053738871296</v>
-      </c>
-      <c r="D78">
-        <v>0.68499999999999994</v>
-      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
@@ -1323,12 +1275,6 @@
       <c r="B79">
         <v>0.49</v>
       </c>
-      <c r="C79">
-        <v>1.4632656279249738</v>
-      </c>
-      <c r="D79">
-        <v>0.69</v>
-      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -1337,798 +1283,456 @@
       <c r="B80">
         <v>0.495</v>
       </c>
-      <c r="C80">
-        <v>1.481925881962818</v>
-      </c>
-      <c r="D80">
-        <v>0.69499999999999995</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.75417597448688745</v>
       </c>
       <c r="B81">
         <v>0.5</v>
       </c>
-      <c r="C81">
-        <v>1.5005861360006627</v>
-      </c>
-      <c r="D81">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.77283622852473166</v>
       </c>
       <c r="B82">
         <v>0.505</v>
       </c>
-      <c r="C82">
-        <v>1.5192463900385065</v>
-      </c>
-      <c r="D82">
-        <v>0.70499999999999985</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0.7914964825625761</v>
       </c>
       <c r="B83">
         <v>0.51</v>
       </c>
-      <c r="C83">
-        <v>1.5379066440763511</v>
-      </c>
-      <c r="D83">
-        <v>0.70999999999999985</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.81015673660042009</v>
       </c>
       <c r="B84">
         <v>0.5149999999999999</v>
       </c>
-      <c r="C84">
-        <v>1.5565668981141958</v>
-      </c>
-      <c r="D84">
-        <v>0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.82881699063826497</v>
       </c>
       <c r="B85">
         <v>0.52</v>
       </c>
-      <c r="C85">
-        <v>1.5752271521520405</v>
-      </c>
-      <c r="D85">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0.84747724467610897</v>
       </c>
       <c r="B86">
         <v>0.52499999999999991</v>
       </c>
-      <c r="C86">
-        <v>1.5938874061898847</v>
-      </c>
-      <c r="D86">
-        <v>0.72499999999999998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.8661374987139534</v>
       </c>
       <c r="B87">
         <v>0.52999999999999992</v>
       </c>
-      <c r="C87">
-        <v>1.6125476602277289</v>
-      </c>
-      <c r="D87">
-        <v>0.72999999999999987</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.88479775275179828</v>
       </c>
       <c r="B88">
         <v>0.53500000000000003</v>
       </c>
-      <c r="C88">
-        <v>1.6312079142655731</v>
-      </c>
-      <c r="D88">
-        <v>0.73499999999999988</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.90345800678964205</v>
       </c>
       <c r="B89">
         <v>0.53999999999999992</v>
       </c>
-      <c r="C89">
-        <v>1.6498681683034173</v>
-      </c>
-      <c r="D89">
-        <v>0.73999999999999988</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.92211826082748671</v>
       </c>
       <c r="B90">
         <v>0.54499999999999993</v>
       </c>
-      <c r="C90">
-        <v>1.6685284223412624</v>
-      </c>
-      <c r="D90">
-        <v>0.745</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0.94077851486533093</v>
       </c>
       <c r="B91">
         <v>0.54999999999999993</v>
       </c>
-      <c r="C91">
-        <v>1.6871886763791066</v>
-      </c>
-      <c r="D91">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0.95943876890317559</v>
       </c>
       <c r="B92">
         <v>0.55499999999999994</v>
       </c>
-      <c r="C92">
-        <v>1.7058489304169508</v>
-      </c>
-      <c r="D92">
-        <v>0.75499999999999989</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0.9780990229410198</v>
       </c>
       <c r="B93">
         <v>0.55999999999999994</v>
       </c>
-      <c r="C93">
-        <v>1.7245091844547951</v>
-      </c>
-      <c r="D93">
-        <v>0.7599999999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0.99675927697886402</v>
       </c>
       <c r="B94">
         <v>0.56499999999999995</v>
       </c>
-      <c r="C94">
-        <v>1.7431694384926397</v>
-      </c>
-      <c r="D94">
-        <v>0.7649999999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1.0154195310167087</v>
       </c>
       <c r="B95">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C95">
-        <v>1.7618296925304839</v>
-      </c>
-      <c r="D95">
-        <v>0.76999999999999991</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1.0340797850545529</v>
       </c>
       <c r="B96">
         <v>0.57499999999999996</v>
       </c>
-      <c r="C96">
-        <v>1.7804899465683286</v>
-      </c>
-      <c r="D96">
-        <v>0.77500000000000002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1.0527400390923976</v>
       </c>
       <c r="B97">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C97">
-        <v>1.7991502006061728</v>
-      </c>
-      <c r="D97">
-        <v>0.77999999999999992</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1.0714002931302418</v>
       </c>
       <c r="B98">
         <v>0.58499999999999996</v>
       </c>
-      <c r="C98">
-        <v>1.817810454644017</v>
-      </c>
-      <c r="D98">
-        <v>0.78499999999999992</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1.090060547168086</v>
       </c>
       <c r="B99">
         <v>0.59</v>
       </c>
-      <c r="C99">
-        <v>1.8364707086818617</v>
-      </c>
-      <c r="D99">
-        <v>0.78999999999999992</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1.1087208012059306</v>
       </c>
       <c r="B100">
         <v>0.59499999999999997</v>
       </c>
-      <c r="C100">
-        <v>1.8551309627197059</v>
-      </c>
-      <c r="D100">
-        <v>0.79499999999999993</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1.1273810552437749</v>
       </c>
       <c r="B101">
         <v>0.6</v>
       </c>
-      <c r="C101">
-        <v>1.8737912167575501</v>
-      </c>
-      <c r="D101">
-        <v>0.79999999999999993</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1.1460413092816195</v>
       </c>
       <c r="B102">
         <v>0.60499999999999998</v>
       </c>
-      <c r="C102">
-        <v>1.8924514707953943</v>
-      </c>
-      <c r="D102">
-        <v>0.80499999999999983</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1.1647015633194637</v>
       </c>
       <c r="B103">
         <v>0.61</v>
       </c>
-      <c r="C103">
-        <v>1.911111724833239</v>
-      </c>
-      <c r="D103">
-        <v>0.80999999999999994</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1.1833618173573079</v>
       </c>
       <c r="B104">
         <v>0.61499999999999988</v>
       </c>
-      <c r="C104">
-        <v>1.9297719788710836</v>
-      </c>
-      <c r="D104">
-        <v>0.81499999999999995</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1.2020220713951526</v>
       </c>
       <c r="B105">
         <v>0.62</v>
       </c>
-      <c r="C105">
-        <v>1.9484322329089279</v>
-      </c>
-      <c r="D105">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1.2206823254329968</v>
       </c>
       <c r="B106">
         <v>0.62499999999999989</v>
       </c>
-      <c r="C106">
-        <v>1.9670924869467725</v>
-      </c>
-      <c r="D106">
-        <v>0.82499999999999996</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1.239342579470841</v>
       </c>
       <c r="B107">
         <v>0.62999999999999989</v>
       </c>
-      <c r="C107">
-        <v>1.9857527409846163</v>
-      </c>
-      <c r="D107">
-        <v>0.82999999999999985</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1.2580028335086857</v>
       </c>
       <c r="B108">
         <v>0.63500000000000001</v>
       </c>
-      <c r="C108">
-        <v>2.0044129950224612</v>
-      </c>
-      <c r="D108">
-        <v>0.83499999999999985</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1.2766630875465299</v>
       </c>
       <c r="B109">
         <v>0.6399999999999999</v>
       </c>
-      <c r="C109">
-        <v>2.0230732490603058</v>
-      </c>
-      <c r="D109">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1.2953233415843741</v>
       </c>
       <c r="B110">
         <v>0.64499999999999991</v>
       </c>
-      <c r="C110">
-        <v>2.0417335030981496</v>
-      </c>
-      <c r="D110">
-        <v>0.84499999999999997</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1.3139835956222188</v>
       </c>
       <c r="B111">
         <v>0.64999999999999991</v>
       </c>
-      <c r="C111">
-        <v>2.0603937571359943</v>
-      </c>
-      <c r="D111">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1.332643849660063</v>
       </c>
       <c r="B112">
         <v>0.65499999999999992</v>
       </c>
-      <c r="C112">
-        <v>2.079054011173838</v>
-      </c>
-      <c r="D112">
-        <v>0.85499999999999987</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1.3513041036979077</v>
       </c>
       <c r="B113">
         <v>0.65999999999999992</v>
       </c>
-      <c r="C113">
-        <v>2.0977142652116827</v>
-      </c>
-      <c r="D113">
-        <v>0.85999999999999988</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1.3699643577357519</v>
       </c>
       <c r="B114">
         <v>0.66499999999999992</v>
       </c>
-      <c r="C114">
-        <v>2.1163745192495274</v>
-      </c>
-      <c r="D114">
-        <v>0.86499999999999988</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1.3886246117735961</v>
       </c>
       <c r="B115">
         <v>0.66999999999999993</v>
       </c>
-      <c r="C115">
-        <v>2.135034773287372</v>
-      </c>
-      <c r="D115">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1.4072848658114407</v>
       </c>
       <c r="B116">
         <v>0.67499999999999993</v>
       </c>
-      <c r="C116">
-        <v>2.1536950273252167</v>
-      </c>
-      <c r="D116">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1.4259451198492845</v>
       </c>
       <c r="B117">
         <v>0.67999999999999983</v>
       </c>
-      <c r="C117">
-        <v>2.1723552813630604</v>
-      </c>
-      <c r="D117">
-        <v>0.87999999999999989</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1.4446053738871296</v>
       </c>
       <c r="B118">
         <v>0.68499999999999994</v>
       </c>
-      <c r="C118">
-        <v>2.1910155354009051</v>
-      </c>
-      <c r="D118">
-        <v>0.8849999999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1.4632656279249738</v>
       </c>
       <c r="B119">
         <v>0.69</v>
       </c>
-      <c r="C119">
-        <v>2.2096757894387489</v>
-      </c>
-      <c r="D119">
-        <v>0.8899999999999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1.481925881962818</v>
       </c>
       <c r="B120">
         <v>0.69499999999999995</v>
       </c>
-      <c r="C120">
-        <v>2.2283360434765935</v>
-      </c>
-      <c r="D120">
-        <v>0.89499999999999991</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1.5005861360006627</v>
       </c>
       <c r="B121">
         <v>0.7</v>
       </c>
-      <c r="C121">
-        <v>2.2469962975144382</v>
-      </c>
-      <c r="D121">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1.5192463900385065</v>
       </c>
       <c r="B122">
         <v>0.70499999999999985</v>
       </c>
-      <c r="C122">
-        <v>2.265656551552282</v>
-      </c>
-      <c r="D122">
-        <v>0.90499999999999992</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1.5379066440763511</v>
       </c>
       <c r="B123">
         <v>0.70999999999999985</v>
       </c>
-      <c r="C123">
-        <v>2.2843168055901266</v>
-      </c>
-      <c r="D123">
-        <v>0.90999999999999992</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1.5565668981141958</v>
       </c>
       <c r="B124">
         <v>0.71499999999999997</v>
       </c>
-      <c r="C124">
-        <v>2.3029770596279713</v>
-      </c>
-      <c r="D124">
-        <v>0.91499999999999992</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1.5752271521520405</v>
       </c>
       <c r="B125">
         <v>0.72</v>
       </c>
-      <c r="C125">
-        <v>2.3216373136658159</v>
-      </c>
-      <c r="D125">
-        <v>0.91999999999999993</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1.5938874061898847</v>
       </c>
       <c r="B126">
         <v>0.72499999999999998</v>
       </c>
-      <c r="C126">
-        <v>2.3402975677036597</v>
-      </c>
-      <c r="D126">
-        <v>0.92499999999999982</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1.6125476602277289</v>
       </c>
       <c r="B127">
         <v>0.72999999999999987</v>
       </c>
-      <c r="C127">
-        <v>2.3589578217415044</v>
-      </c>
-      <c r="D127">
-        <v>0.92999999999999983</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1.6312079142655731</v>
       </c>
       <c r="B128">
         <v>0.73499999999999988</v>
       </c>
-      <c r="C128">
-        <v>2.377618075779349</v>
-      </c>
-      <c r="D128">
-        <v>0.93499999999999994</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1.6498681683034173</v>
       </c>
       <c r="B129">
         <v>0.73999999999999988</v>
       </c>
-      <c r="C129">
-        <v>2.3962783298171928</v>
-      </c>
-      <c r="D129">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1.6685284223412624</v>
       </c>
       <c r="B130">
         <v>0.745</v>
       </c>
-      <c r="C130">
-        <v>2.4149385838550375</v>
-      </c>
-      <c r="D130">
-        <v>0.94499999999999995</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1.6871886763791066</v>
       </c>
       <c r="B131">
         <v>0.75</v>
       </c>
-      <c r="C131">
-        <v>2.4335988378928812</v>
-      </c>
-      <c r="D131">
-        <v>0.94999999999999984</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1.7058489304169508</v>
       </c>
       <c r="B132">
         <v>0.75499999999999989</v>
       </c>
-      <c r="C132">
-        <v>2.4522590919307259</v>
-      </c>
-      <c r="D132">
-        <v>0.95499999999999985</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1.7245091844547951</v>
       </c>
       <c r="B133">
         <v>0.7599999999999999</v>
       </c>
-      <c r="C133">
-        <v>2.4709193459685705</v>
-      </c>
-      <c r="D133">
-        <v>0.95999999999999985</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1.7431694384926397</v>
       </c>
       <c r="B134">
         <v>0.7649999999999999</v>
       </c>
-      <c r="C134">
-        <v>2.4895796000064152</v>
-      </c>
-      <c r="D134">
-        <v>0.96499999999999997</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1.7618296925304839</v>
       </c>
       <c r="B135">
         <v>0.76999999999999991</v>
       </c>
-      <c r="C135">
-        <v>2.5082398540442599</v>
-      </c>
-      <c r="D135">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1.7804899465683286</v>
       </c>
       <c r="B136">
         <v>0.77500000000000002</v>
       </c>
-      <c r="C136">
-        <v>2.5269001080821036</v>
-      </c>
-      <c r="D136">
-        <v>0.97499999999999987</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1.7991502006061728</v>
       </c>
@@ -2136,7 +1740,7 @@
         <v>0.77999999999999992</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1.817810454644017</v>
       </c>
@@ -2144,7 +1748,7 @@
         <v>0.78499999999999992</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1.8364707086818617</v>
       </c>
@@ -2152,7 +1756,7 @@
         <v>0.78999999999999992</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1.8551309627197059</v>
       </c>
@@ -2160,7 +1764,7 @@
         <v>0.79499999999999993</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1.8737912167575501</v>
       </c>
@@ -2168,7 +1772,7 @@
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1.8924514707953943</v>
       </c>
@@ -2176,7 +1780,7 @@
         <v>0.80499999999999983</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1.911111724833239</v>
       </c>
@@ -2184,7 +1788,7 @@
         <v>0.80999999999999994</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1.9297719788710836</v>
       </c>
